--- a/doc/Modellazione casi d'uso/Modellazione casi d'uso.xlsx
+++ b/doc/Modellazione casi d'uso/Modellazione casi d'uso.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Caso d'uso</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>L'utente decide di rifiutare l'invito cliccando il pulsante della risposta scelta</t>
+  </si>
+  <si>
+    <t>Servizio di posta elettronica</t>
   </si>
 </sst>
 </file>
@@ -341,110 +344,110 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,180 +752,180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45:N46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="24" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="17" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="17" t="s">
+      <c r="L5" s="25"/>
+      <c r="M5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="17" t="s">
+      <c r="N5" s="28"/>
+      <c r="O5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="17" t="s">
+      <c r="P5" s="25"/>
+      <c r="Q5" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="18"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="20"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="27"/>
     </row>
     <row r="7" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6"/>
     </row>
     <row r="8" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="15"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="8"/>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="6"/>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="15"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="8"/>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="11"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6"/>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="8"/>
     </row>
     <row r="13" spans="5:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1" t="s">
         <v>25</v>
@@ -936,52 +939,52 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="4"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="22"/>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="4"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="22"/>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4"/>
     </row>
     <row r="17" spans="5:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
@@ -991,69 +994,71 @@
       <c r="G17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="1"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="P17" s="2"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="11"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="6"/>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="13"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="14"/>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="13"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="14"/>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="8"/>
     </row>
     <row r="21" spans="5:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
@@ -1063,67 +1068,67 @@
       <c r="G21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L21" s="2"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="11"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="6"/>
     </row>
     <row r="22" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="13"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="14"/>
     </row>
     <row r="23" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="13"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="14"/>
     </row>
     <row r="24" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="15"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="8"/>
     </row>
     <row r="25" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
@@ -1133,51 +1138,51 @@
       <c r="G25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="31"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="16"/>
     </row>
     <row r="26" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="37"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="18"/>
     </row>
     <row r="27" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="33"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="20"/>
     </row>
     <row r="28" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
@@ -1187,35 +1192,35 @@
       <c r="G28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="11"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="6"/>
     </row>
     <row r="29" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="15"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="8"/>
     </row>
     <row r="30" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="s">
@@ -1225,35 +1230,35 @@
       <c r="G30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="11"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="6"/>
     </row>
     <row r="31" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="15"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="8"/>
     </row>
     <row r="32" spans="5:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="s">
@@ -1263,8 +1268,8 @@
       <c r="G32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1" t="s">
         <v>27</v>
@@ -1278,177 +1283,177 @@
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="4"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="22"/>
     </row>
     <row r="34" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="6"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="4"/>
     </row>
     <row r="35" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L35" s="11"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="11"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="6"/>
     </row>
     <row r="36" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="15"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="8"/>
     </row>
     <row r="37" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="10" t="s">
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L37" s="11"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="11"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="6"/>
     </row>
     <row r="38" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="15"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="8"/>
     </row>
     <row r="39" spans="5:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="11"/>
+      <c r="F39" s="6"/>
       <c r="G39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="10" t="s">
+      <c r="K39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L39" s="11"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="11"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="6"/>
     </row>
     <row r="40" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E40" s="12"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="14"/>
     </row>
     <row r="41" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="15"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="8"/>
     </row>
     <row r="42" spans="5:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F42" s="11"/>
+      <c r="F42" s="6"/>
       <c r="G42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
       <c r="J42" s="2"/>
       <c r="K42" s="1" t="s">
         <v>27</v>
@@ -1458,51 +1463,51 @@
       <c r="N42" s="2"/>
       <c r="O42" s="1"/>
       <c r="P42" s="2"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="11"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="6"/>
     </row>
     <row r="43" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E43" s="12"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="14"/>
     </row>
     <row r="44" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E44" s="14"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="15"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="8"/>
     </row>
     <row r="45" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="11"/>
+      <c r="F45" s="6"/>
       <c r="G45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
       <c r="J45" s="2"/>
       <c r="K45" s="1" t="s">
         <v>27</v>
@@ -1512,24 +1517,24 @@
       <c r="N45" s="2"/>
       <c r="O45" s="1"/>
       <c r="P45" s="2"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="11"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="6"/>
     </row>
     <row r="46" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E46" s="12"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="14"/>
     </row>
     <row r="47" spans="5:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" s="1" t="s">
@@ -1539,51 +1544,51 @@
       <c r="G47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L47" s="11"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="11"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="6"/>
     </row>
     <row r="48" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E48" s="3"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="13"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="14"/>
     </row>
     <row r="49" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E49" s="5"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="15"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="8"/>
     </row>
     <row r="50" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E50" s="1" t="s">
@@ -1593,37 +1598,37 @@
       <c r="G50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
       <c r="J50" s="2"/>
       <c r="K50" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L50" s="2"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="10" t="s">
+      <c r="M50" s="5"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R50" s="11"/>
+      <c r="R50" s="6"/>
     </row>
     <row r="51" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E51" s="5"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="15"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="8"/>
     </row>
     <row r="52" spans="5:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E52" s="1" t="s">
@@ -1633,8 +1638,8 @@
       <c r="G52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
       <c r="J52" s="2"/>
       <c r="K52" s="1" t="s">
         <v>29</v>
@@ -1648,74 +1653,74 @@
       <c r="R52" s="2"/>
     </row>
     <row r="53" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E53" s="3"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="4"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="22"/>
     </row>
     <row r="54" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E54" s="5"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="6"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="4"/>
     </row>
     <row r="55" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E55" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="10" t="s">
+      <c r="G55" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="6"/>
       <c r="K55" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L55" s="2"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="11"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="6"/>
     </row>
     <row r="56" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E56" s="5"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="15"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="8"/>
     </row>
     <row r="57" spans="5:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E57" s="1" t="s">
@@ -1725,8 +1730,8 @@
       <c r="G57" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
       <c r="J57" s="2"/>
       <c r="K57" s="1" t="s">
         <v>31</v>
@@ -1740,74 +1745,74 @@
       <c r="R57" s="2"/>
     </row>
     <row r="58" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E58" s="3"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="4"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="22"/>
     </row>
     <row r="59" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E59" s="5"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="6"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="4"/>
     </row>
     <row r="60" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F60" s="11"/>
+      <c r="F60" s="6"/>
       <c r="G60" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
       <c r="J60" s="2"/>
       <c r="K60" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L60" s="2"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="11"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="6"/>
     </row>
     <row r="61" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E61" s="14"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="15"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="8"/>
     </row>
     <row r="62" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E62" s="1" t="s">
@@ -1817,48 +1822,140 @@
       <c r="G62" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
       <c r="J62" s="2"/>
       <c r="K62" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L62" s="2"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="11"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="6"/>
     </row>
     <row r="63" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E63" s="5"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="15"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="138">
-    <mergeCell ref="E62:F63"/>
-    <mergeCell ref="K62:L63"/>
-    <mergeCell ref="M62:N63"/>
-    <mergeCell ref="O62:P63"/>
-    <mergeCell ref="Q62:R63"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="K60:L61"/>
-    <mergeCell ref="M60:N61"/>
-    <mergeCell ref="O60:P61"/>
-    <mergeCell ref="Q60:R61"/>
+    <mergeCell ref="E57:F59"/>
+    <mergeCell ref="G57:J59"/>
+    <mergeCell ref="K57:L59"/>
+    <mergeCell ref="M57:N59"/>
+    <mergeCell ref="O57:P59"/>
+    <mergeCell ref="Q57:R59"/>
+    <mergeCell ref="O42:P44"/>
+    <mergeCell ref="Q42:R44"/>
+    <mergeCell ref="E47:F49"/>
+    <mergeCell ref="G47:J49"/>
+    <mergeCell ref="K47:L49"/>
+    <mergeCell ref="M47:N49"/>
+    <mergeCell ref="O47:P49"/>
+    <mergeCell ref="Q47:R49"/>
+    <mergeCell ref="E52:F54"/>
+    <mergeCell ref="G52:J54"/>
+    <mergeCell ref="K52:L54"/>
+    <mergeCell ref="M52:N54"/>
+    <mergeCell ref="O52:P54"/>
+    <mergeCell ref="Q52:R54"/>
+    <mergeCell ref="E50:F51"/>
+    <mergeCell ref="K50:L51"/>
+    <mergeCell ref="M50:N51"/>
+    <mergeCell ref="O50:P51"/>
+    <mergeCell ref="G21:J24"/>
+    <mergeCell ref="E21:F24"/>
+    <mergeCell ref="K21:L24"/>
+    <mergeCell ref="M21:N24"/>
+    <mergeCell ref="O21:P24"/>
+    <mergeCell ref="Q21:R24"/>
+    <mergeCell ref="E32:F34"/>
+    <mergeCell ref="G32:J34"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="M28:N29"/>
+    <mergeCell ref="O28:P29"/>
+    <mergeCell ref="Q28:R29"/>
+    <mergeCell ref="G25:J27"/>
+    <mergeCell ref="G28:J29"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="Q30:R31"/>
+    <mergeCell ref="G30:J31"/>
+    <mergeCell ref="E13:F16"/>
+    <mergeCell ref="G13:J16"/>
+    <mergeCell ref="K13:L16"/>
+    <mergeCell ref="M13:N16"/>
+    <mergeCell ref="O13:P16"/>
+    <mergeCell ref="Q13:R16"/>
+    <mergeCell ref="E17:F20"/>
+    <mergeCell ref="G17:J20"/>
+    <mergeCell ref="K17:L20"/>
+    <mergeCell ref="M17:N20"/>
+    <mergeCell ref="O17:P20"/>
+    <mergeCell ref="Q17:R20"/>
+    <mergeCell ref="O5:P6"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:J8"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="G9:J10"/>
+    <mergeCell ref="G11:J12"/>
+    <mergeCell ref="Q39:R41"/>
+    <mergeCell ref="E42:F44"/>
+    <mergeCell ref="G42:J44"/>
+    <mergeCell ref="K42:L44"/>
+    <mergeCell ref="M42:N44"/>
+    <mergeCell ref="K32:L34"/>
+    <mergeCell ref="M32:N34"/>
+    <mergeCell ref="O32:P34"/>
+    <mergeCell ref="Q32:R34"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="K37:L38"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="O37:P38"/>
+    <mergeCell ref="Q37:R38"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="O35:P36"/>
+    <mergeCell ref="Q35:R36"/>
+    <mergeCell ref="G35:J36"/>
+    <mergeCell ref="G37:J38"/>
     <mergeCell ref="Q50:R51"/>
     <mergeCell ref="G50:J51"/>
     <mergeCell ref="E55:F56"/>
@@ -1883,110 +1980,18 @@
     <mergeCell ref="K39:L41"/>
     <mergeCell ref="M39:N41"/>
     <mergeCell ref="O39:P41"/>
-    <mergeCell ref="Q39:R41"/>
-    <mergeCell ref="E42:F44"/>
-    <mergeCell ref="G42:J44"/>
-    <mergeCell ref="K42:L44"/>
-    <mergeCell ref="M42:N44"/>
-    <mergeCell ref="K32:L34"/>
-    <mergeCell ref="M32:N34"/>
-    <mergeCell ref="O32:P34"/>
-    <mergeCell ref="Q32:R34"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="K37:L38"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="O37:P38"/>
-    <mergeCell ref="Q37:R38"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="K35:L36"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="O35:P36"/>
-    <mergeCell ref="Q35:R36"/>
-    <mergeCell ref="G35:J36"/>
-    <mergeCell ref="G37:J38"/>
-    <mergeCell ref="M28:N29"/>
-    <mergeCell ref="O28:P29"/>
-    <mergeCell ref="Q28:R29"/>
-    <mergeCell ref="G25:J27"/>
-    <mergeCell ref="G28:J29"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="Q30:R31"/>
-    <mergeCell ref="G30:J31"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="M11:N12"/>
-    <mergeCell ref="O11:P12"/>
-    <mergeCell ref="Q11:R12"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="G9:J10"/>
-    <mergeCell ref="G11:J12"/>
-    <mergeCell ref="O5:P6"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:J8"/>
+    <mergeCell ref="E62:F63"/>
+    <mergeCell ref="K62:L63"/>
+    <mergeCell ref="M62:N63"/>
+    <mergeCell ref="O62:P63"/>
+    <mergeCell ref="Q62:R63"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="K60:L61"/>
+    <mergeCell ref="M60:N61"/>
+    <mergeCell ref="O60:P61"/>
+    <mergeCell ref="Q60:R61"/>
     <mergeCell ref="G60:J61"/>
     <mergeCell ref="G62:J63"/>
-    <mergeCell ref="E13:F16"/>
-    <mergeCell ref="G13:J16"/>
-    <mergeCell ref="K13:L16"/>
-    <mergeCell ref="M13:N16"/>
-    <mergeCell ref="O13:P16"/>
-    <mergeCell ref="Q13:R16"/>
-    <mergeCell ref="E17:F20"/>
-    <mergeCell ref="G17:J20"/>
-    <mergeCell ref="K17:L20"/>
-    <mergeCell ref="M17:N20"/>
-    <mergeCell ref="O17:P20"/>
-    <mergeCell ref="Q17:R20"/>
-    <mergeCell ref="G21:J24"/>
-    <mergeCell ref="E21:F24"/>
-    <mergeCell ref="K21:L24"/>
-    <mergeCell ref="M21:N24"/>
-    <mergeCell ref="O21:P24"/>
-    <mergeCell ref="Q21:R24"/>
-    <mergeCell ref="E32:F34"/>
-    <mergeCell ref="G32:J34"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="E57:F59"/>
-    <mergeCell ref="G57:J59"/>
-    <mergeCell ref="K57:L59"/>
-    <mergeCell ref="M57:N59"/>
-    <mergeCell ref="O57:P59"/>
-    <mergeCell ref="Q57:R59"/>
-    <mergeCell ref="O42:P44"/>
-    <mergeCell ref="Q42:R44"/>
-    <mergeCell ref="E47:F49"/>
-    <mergeCell ref="G47:J49"/>
-    <mergeCell ref="K47:L49"/>
-    <mergeCell ref="M47:N49"/>
-    <mergeCell ref="O47:P49"/>
-    <mergeCell ref="Q47:R49"/>
-    <mergeCell ref="E52:F54"/>
-    <mergeCell ref="G52:J54"/>
-    <mergeCell ref="K52:L54"/>
-    <mergeCell ref="M52:N54"/>
-    <mergeCell ref="O52:P54"/>
-    <mergeCell ref="Q52:R54"/>
-    <mergeCell ref="E50:F51"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="M50:N51"/>
-    <mergeCell ref="O50:P51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
